--- a/input/qc_template.xlsx
+++ b/input/qc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/kesic_branislav_epa_gov/Documents/Profile/Documents/GitHub/CvTdbLoad/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="14_{B42C868E-A05A-4AA1-A0E0-17B234D67F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{352D46A5-8E13-4836-BD19-51BD9F8A71FB}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="14_{B42C868E-A05A-4AA1-A0E0-17B234D67F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{453FA52D-4E05-482E-B5D7-16E8C11EED80}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,14 +368,6 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -427,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,9 +454,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE4BB7-D604-4848-8F98-B3DF84410C96}">
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,25 +860,20 @@
     <col min="28" max="28" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="27.7265625" customWidth="1"/>
-    <col min="31" max="31" width="29.1796875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="27.26953125" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="28.453125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="21.7265625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="27" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="29" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.1796875" customWidth="1"/>
+    <col min="32" max="32" width="27.26953125" customWidth="1"/>
+    <col min="33" max="33" width="28.453125" customWidth="1"/>
+    <col min="34" max="34" width="21.7265625" customWidth="1"/>
+    <col min="35" max="35" width="27" customWidth="1"/>
+    <col min="36" max="36" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -995,46 +979,31 @@
       <c r="AI1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="21" t="s">
-        <v>42</v>
+      <c r="AJ1" s="14" t="s">
+        <v>84</v>
       </c>
-      <c r="AK1" s="21" t="s">
-        <v>43</v>
+      <c r="AK1" s="14" t="s">
+        <v>85</v>
       </c>
-      <c r="AL1" s="21" t="s">
-        <v>45</v>
+      <c r="AL1" s="14" t="s">
+        <v>90</v>
       </c>
-      <c r="AM1" s="21" t="s">
-        <v>44</v>
+      <c r="AM1" s="14" t="s">
+        <v>91</v>
       </c>
-      <c r="AN1" s="21" t="s">
-        <v>46</v>
+      <c r="AN1" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -20613,7 +20582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L4392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
